--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2666102.103820963</v>
+        <v>2665405.442615874</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114754</v>
+        <v>612367.9462114761</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -673,13 +673,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>36.60098920090984</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>179.864383397895</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -831,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>121.4591675454684</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>251.3802470677046</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -901,16 +901,16 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>340.0691008358336</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>14.94721823158723</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>51.69511841098279</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1119,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.77277097017761</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>71.21229122917212</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1150,10 +1150,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>214.6205850680693</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1350,13 +1350,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>173.4636916636103</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686398</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>16.29612125183689</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686396</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1827,7 +1827,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>260.3259920957991</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.649880648615</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>162.7252425861475</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>407.60279884393</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2241,22 +2241,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>106.7228969293689</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>92.82640963656475</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2478,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>204.7884271372686</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2727,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>92.01098438110691</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>50.75755770605702</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3243,7 +3243,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155064</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068498</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.295671786446</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396364</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309552</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831853</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686203</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963591</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y37" t="n">
-        <v>58.31517967031825</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068498</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.295671786446</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396364</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309552</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446605</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831853</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060566</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971647</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V40" t="n">
-        <v>215.6917342422698</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068498</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.295671786446</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396531</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.3236211855919</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309552</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="42">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>74.48819738510699</v>
+        <v>170.1431564831853</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969872</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716353</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963591</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068498</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.295671786446</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396534</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831853</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>118.6299102505537</v>
+        <v>168.4336970060566</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>168.916462397165</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>240.138257588653</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>563.0709252622231</v>
+        <v>565.1447501682297</v>
       </c>
       <c r="C2" t="n">
-        <v>540.2105993159273</v>
+        <v>542.2844242219339</v>
       </c>
       <c r="D2" t="n">
-        <v>116.9179785009276</v>
+        <v>523.0322074473382</v>
       </c>
       <c r="E2" t="n">
-        <v>94.98144268918922</v>
+        <v>501.0956716355998</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899353</v>
+        <v>480.0118938654041</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884622</v>
+        <v>75.67283145485277</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884622</v>
+        <v>38.70213529231758</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231758</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>401.3055941092131</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516411</v>
+        <v>401.3055941092131</v>
       </c>
       <c r="L2" t="n">
-        <v>977.228916131015</v>
+        <v>401.3055941092131</v>
       </c>
       <c r="M2" t="n">
-        <v>977.228916131015</v>
+        <v>403.5871017449332</v>
       </c>
       <c r="N2" t="n">
-        <v>977.228916131015</v>
+        <v>882.5260259873633</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373443</v>
+        <v>882.5260259873633</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615871</v>
+        <v>1361.464950229793</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615871</v>
+        <v>1817.550429733976</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615871</v>
+        <v>1830.739470489019</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615871</v>
+        <v>1609.813899533652</v>
       </c>
       <c r="U2" t="n">
-        <v>1935.106764615871</v>
+        <v>1351.458990130065</v>
       </c>
       <c r="V2" t="n">
-        <v>1577.617349742121</v>
+        <v>993.9695752563141</v>
       </c>
       <c r="W2" t="n">
-        <v>1395.936154390712</v>
+        <v>993.9695752563141</v>
       </c>
       <c r="X2" t="n">
-        <v>984.2161555584588</v>
+        <v>582.2495764240614</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.8788855133491</v>
+        <v>580.9527104193558</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>186.132000312404</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000799</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231758</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231743</v>
+        <v>46.14877825422942</v>
       </c>
       <c r="J3" t="n">
-        <v>310.3996245719085</v>
+        <v>317.8462675338205</v>
       </c>
       <c r="K3" t="n">
-        <v>310.3996245719085</v>
+        <v>317.8462675338205</v>
       </c>
       <c r="L3" t="n">
-        <v>410.5729931455428</v>
+        <v>796.7851917762505</v>
       </c>
       <c r="M3" t="n">
-        <v>889.5119173879709</v>
+        <v>796.7851917762505</v>
       </c>
       <c r="N3" t="n">
-        <v>1368.450841630399</v>
+        <v>796.7851917762505</v>
       </c>
       <c r="O3" t="n">
-        <v>1847.389765872827</v>
+        <v>822.2860546829149</v>
       </c>
       <c r="P3" t="n">
-        <v>1847.389765872827</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>792.3095152375572</v>
+        <v>1022.11468955683</v>
       </c>
       <c r="C4" t="n">
-        <v>620.3369521164732</v>
+        <v>850.1421264357464</v>
       </c>
       <c r="D4" t="n">
-        <v>620.3369521164732</v>
+        <v>686.8253535625171</v>
       </c>
       <c r="E4" t="n">
-        <v>454.1287462693267</v>
+        <v>520.6171477153706</v>
       </c>
       <c r="F4" t="n">
-        <v>282.2669720438871</v>
+        <v>348.7553734899311</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>182.4984037841632</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231758</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231758</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231758</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>165.7127968735072</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>520.4021181679279</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>911.5879131381787</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1289.079424014215</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1644.507552693978</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303044</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="S4" t="n">
-        <v>1765.382123479339</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="T4" t="n">
-        <v>1765.382123479339</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="U4" t="n">
-        <v>1765.382123479339</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="V4" t="n">
-        <v>1483.670656087368</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="W4" t="n">
-        <v>1208.818252259881</v>
+        <v>1681.187323133349</v>
       </c>
       <c r="X4" t="n">
-        <v>1208.818252259881</v>
+        <v>1438.623426579154</v>
       </c>
       <c r="Y4" t="n">
-        <v>982.4754839496229</v>
+        <v>1212.280658268896</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.947823099961</v>
+        <v>891.2873795073754</v>
       </c>
       <c r="C5" t="n">
-        <v>1354.087497153665</v>
+        <v>868.4270535610796</v>
       </c>
       <c r="D5" t="n">
-        <v>930.7948763386659</v>
+        <v>849.1748367864839</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>827.2383009747455</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
         <v>79.39509630577632</v>
@@ -4567,52 +4567,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>455.3583126271592</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2209.81305222845</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.81305222845</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X5" t="n">
-        <v>1798.093053396197</v>
+        <v>1716.473013844015</v>
       </c>
       <c r="Y5" t="n">
-        <v>1796.796187391491</v>
+        <v>1311.135743798905</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>416.2236218818665</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>966.8891568663047</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M6" t="n">
-        <v>1123.5801824935</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N6" t="n">
-        <v>1123.5801824935</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>1674.245717477938</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>964.3625747002551</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C7" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
         <v>2097.911122221615</v>
@@ -4758,19 +4758,19 @@
         <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894585</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1482.686776502613</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1207.834372675126</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>1207.834372675126</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>1154.528543412321</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>866.7353935451185</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C8" t="n">
-        <v>843.8750675988227</v>
+        <v>561.1048893067843</v>
       </c>
       <c r="D8" t="n">
-        <v>824.622850824227</v>
+        <v>137.8122684917846</v>
       </c>
       <c r="E8" t="n">
-        <v>398.6459109720846</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>377.5621332018889</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,22 +4807,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>1696.494830002562</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1903.75548856979</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1645.400579166203</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1287.911164292452</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>891.5198145927989</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>883.8402198009502</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y8" t="n">
-        <v>882.5433537962446</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>423.6702648437783</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>572.914647509062</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>1123.5801824935</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>1674.245717477938</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>2224.911252462377</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>2224.911252462377</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>2224.911252462377</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>617.6368043798143</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C10" t="n">
-        <v>617.6368043798143</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D10" t="n">
-        <v>454.3200315065851</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E10" t="n">
-        <v>454.3200315065851</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4998,16 +4998,16 @@
         <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1484.213795394888</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1209.361391567401</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1034.145541402138</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>807.80277309188</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5029,19 +5029,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
@@ -5050,43 +5050,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X11" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="12">
@@ -5111,13 +5111,13 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J12" t="n">
         <v>381.4468456473314</v>
@@ -5126,22 +5126,22 @@
         <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.167063056836</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C13" t="n">
-        <v>850.1944999357522</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D13" t="n">
-        <v>850.1944999357522</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E13" t="n">
-        <v>683.9862940886057</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F13" t="n">
-        <v>512.1245198631661</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G13" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>2049.081351488056</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U13" t="n">
-        <v>1768.89690298836</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V13" t="n">
-        <v>1487.185435596389</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W13" t="n">
-        <v>1212.333031768902</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X13" t="n">
-        <v>1212.333031768902</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y13" t="n">
-        <v>1212.333031768902</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
         <v>435.0679631883225</v>
@@ -5278,7 +5278,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
@@ -5290,40 +5290,40 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>3696.349205754529</v>
       </c>
       <c r="O14" t="n">
-        <v>4090.576687723259</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3774.338928650966</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C16" t="n">
-        <v>3602.366365529882</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D16" t="n">
-        <v>3439.049592656653</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E16" t="n">
-        <v>3272.841386809506</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F16" t="n">
-        <v>3100.979612584067</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G16" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>5068.0970569786</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U16" t="n">
-        <v>4787.912608478905</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V16" t="n">
-        <v>4506.201141086934</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W16" t="n">
-        <v>4243.245593515419</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X16" t="n">
-        <v>4000.681696961224</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y16" t="n">
-        <v>3774.338928650966</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
         <v>839.4070255988738</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>1054.158777558267</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2988.069926596602</v>
+        <v>2720.098147267828</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3696.349205754529</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5609,13 +5609,13 @@
         <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1688.129489254169</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1177.880204714181</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5706,19 +5706,19 @@
         <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1869.241345563992</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1869.241345563992</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1594.388941736505</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1594.388941736505</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1368.046173426247</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2720.098147267829</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N20" t="n">
-        <v>3696.34920575453</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O20" t="n">
-        <v>4541.493855905342</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>939.1015214887346</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1655.299238527233</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>756.1415250913442</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>584.1689619702602</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D22" t="n">
-        <v>584.1689619702602</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
-        <v>417.9607561231137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1971.778029887321</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1971.778029887321</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1690.06656249535</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1415.214158667863</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1172.650262113668</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>946.3074938034099</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5992,25 +5992,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2129.375202991803</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>305.3113489363686</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>345.8675501573982</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>345.8675501573982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>345.8675501573982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>345.8675501573982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>536.0335188694639</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6244,10 +6244,10 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,25 +6302,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3918.135197142812</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C28" t="n">
-        <v>3746.162634021728</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D28" t="n">
-        <v>3582.845861148498</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="E28" t="n">
-        <v>3416.637655301352</v>
+        <v>285.3972456818248</v>
       </c>
       <c r="F28" t="n">
-        <v>3244.775881075912</v>
+        <v>113.5354714563852</v>
       </c>
       <c r="G28" t="n">
-        <v>3078.518911370144</v>
+        <v>113.5354714563852</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>113.5354714563852</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>4945.000622810562</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V28" t="n">
-        <v>4852.060234546818</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W28" t="n">
-        <v>4577.207830719331</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X28" t="n">
-        <v>4334.643934165136</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y28" t="n">
-        <v>4108.301165854878</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M29" t="n">
-        <v>2988.069926596602</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1064.78153311813</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1307.345429672325</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1064.78153311813</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>1064.78153311813</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427964</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>2986.82914530688</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623575</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J35" t="n">
         <v>464.9061722227241</v>
@@ -6946,43 +6946,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="O35" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747416</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G36" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="L36" t="n">
-        <v>305.3113489363686</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="M36" t="n">
-        <v>305.3113489363686</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="N36" t="n">
-        <v>305.3113489363686</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>683.9862940886057</v>
+        <v>446.1370507523524</v>
       </c>
       <c r="C37" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="D37" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302441</v>
       </c>
       <c r="M37" t="n">
         <v>1132.196759100495</v>
@@ -7113,34 +7113,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822126</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048025</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.77355554833</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1105.209684328871</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746764</v>
       </c>
       <c r="Y37" t="n">
-        <v>683.9862940886057</v>
+        <v>636.3030194644182</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883228</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623575</v>
       </c>
       <c r="I38" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>2101.340160059448</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>3105.626261478506</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478506</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629318</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787246</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931864</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232211</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399959</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G39" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="L39" t="n">
-        <v>739.6560874287652</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="M39" t="n">
-        <v>739.6560874287652</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="N39" t="n">
-        <v>1828.971033901635</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
         <v>1828.971033901635</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3544.533754331693</v>
+        <v>446.1370507523524</v>
       </c>
       <c r="C40" t="n">
-        <v>3372.561191210609</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="D40" t="n">
-        <v>3372.561191210609</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="E40" t="n">
-        <v>3206.352985363462</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="F40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302441</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S40" t="n">
-        <v>4945.000622810562</v>
+        <v>2112.580693338091</v>
       </c>
       <c r="T40" t="n">
-        <v>4701.661275036462</v>
+        <v>1941.958004048025</v>
       </c>
       <c r="U40" t="n">
-        <v>4421.476826536767</v>
+        <v>1661.77355554833</v>
       </c>
       <c r="V40" t="n">
-        <v>4203.606387908211</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>4203.606387908211</v>
+        <v>1105.209684328871</v>
       </c>
       <c r="X40" t="n">
-        <v>3961.042491354016</v>
+        <v>862.6457877746764</v>
       </c>
       <c r="Y40" t="n">
-        <v>3734.699723043758</v>
+        <v>636.3030194644182</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063318</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076618</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409476</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598876</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883245</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623592</v>
       </c>
       <c r="I41" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J41" t="n">
         <v>464.9061722227241</v>
@@ -7420,43 +7420,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="O41" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747416</v>
       </c>
       <c r="P41" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931864</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232211</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399958</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354848</v>
       </c>
     </row>
     <row r="42">
@@ -7478,13 +7478,13 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G42" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I42" t="n">
         <v>109.7493563677404</v>
@@ -7496,19 +7496,19 @@
         <v>109.7493563677404</v>
       </c>
       <c r="L42" t="n">
-        <v>109.7493563677404</v>
+        <v>946.5481644506466</v>
       </c>
       <c r="M42" t="n">
-        <v>1165.735894343786</v>
+        <v>946.5481644506466</v>
       </c>
       <c r="N42" t="n">
-        <v>1165.735894343786</v>
+        <v>946.5481644506466</v>
       </c>
       <c r="O42" t="n">
-        <v>1165.735894343786</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.933611382284</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>845.2978283723562</v>
+        <v>446.1370507523524</v>
       </c>
       <c r="C43" t="n">
-        <v>673.3252652512722</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="D43" t="n">
-        <v>510.0084923780429</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="E43" t="n">
-        <v>343.8002865308964</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302441</v>
       </c>
       <c r="M43" t="n">
         <v>1132.196759100495</v>
@@ -7587,34 +7587,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506129</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822126</v>
       </c>
       <c r="T43" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048025</v>
       </c>
       <c r="U43" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.77355554833</v>
       </c>
       <c r="V43" t="n">
-        <v>1589.056897064296</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1314.204493236809</v>
+        <v>1105.209684328871</v>
       </c>
       <c r="X43" t="n">
-        <v>1071.640596682614</v>
+        <v>862.6457877746764</v>
       </c>
       <c r="Y43" t="n">
-        <v>845.2978283723562</v>
+        <v>636.3030194644182</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409476</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988761</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883245</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623592</v>
       </c>
       <c r="I44" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J44" t="n">
-        <v>207.5440612468791</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>923.0523692223782</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1852.677416841655</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2856.963518260713</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596603</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747415</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409526</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209201</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7715,19 +7715,19 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G45" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J45" t="n">
-        <v>374.0002026854196</v>
+        <v>374.0002026854197</v>
       </c>
       <c r="K45" t="n">
         <v>964.4851292537592</v>
@@ -7745,10 +7745,10 @@
         <v>964.4851292537592</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3774.338928650966</v>
+        <v>446.1370507523524</v>
       </c>
       <c r="C46" t="n">
-        <v>3602.366365529882</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="D46" t="n">
-        <v>3439.049592656653</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="E46" t="n">
-        <v>3272.841386809506</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="F46" t="n">
-        <v>3100.979612584067</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302442</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S46" t="n">
-        <v>4995.307478119151</v>
+        <v>2112.580693338091</v>
       </c>
       <c r="T46" t="n">
-        <v>4995.307478119151</v>
+        <v>1941.958004048025</v>
       </c>
       <c r="U46" t="n">
-        <v>4715.123029619455</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>4433.411562227484</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>4433.411562227484</v>
+        <v>1105.209684328871</v>
       </c>
       <c r="X46" t="n">
-        <v>4190.847665673289</v>
+        <v>862.6457877746763</v>
       </c>
       <c r="Y46" t="n">
-        <v>3964.504897363031</v>
+        <v>636.3030194644182</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487771</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>136.2760805936067</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>39.73581606682593</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884157</v>
       </c>
       <c r="O2" t="n">
-        <v>521.167650509992</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>521.352052964201</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8063,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>123.7003074956783</v>
+        <v>506.2917778681992</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662958</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675095</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.94858087619</v>
+        <v>48.93033710269137</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587984</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.2582520094692</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>94.6403295087156</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>450.7747902674474</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
@@ -8236,10 +8236,10 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>97.94106200967607</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3705437721214</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8312,13 +8312,13 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8391,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.915358154857</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8455,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>452.5855512828693</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8531,19 +8531,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>173.151135515438</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8552,10 +8552,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O11" t="n">
-        <v>763.5414113871921</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8774,7 +8774,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>247.6270611911683</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,13 +8938,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>625.1822253778511</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>493.0472488628404</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9020,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>178.7542596924545</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>630.9692526488932</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270358</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9257,16 +9257,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>888.8681136474385</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>247.8590127659171</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1019.918210644103</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9494,16 +9494,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>502.8820865988767</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.1730942227182</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,16 +9640,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>702.6160445827093</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>226.402256022168</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>100.0581876036193</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10351,13 +10351,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10372,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055974</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>611.6066190166155</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10679,16 +10679,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>229.9501690078907</v>
+        <v>968.5400018884055</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>666.3063736060849</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980063</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406117</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11144,22 +11144,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>273.9238720426199</v>
       </c>
       <c r="P42" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.09727324256919</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>135.7243512442234</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,13 +11305,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406107</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>426.1551116948253</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>68.15019490184621</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>224.6098330445221</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>68.15019490184622</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>11.77788769341305</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>7.527594903725685</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>63.52994056050429</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>148.0795446597942</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.29091348988675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>87.65045210707571</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>186.8833683369445</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>119.4952797838161</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>118.557719078891</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>71.98949189919239</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712693</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991946</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>142.3583058069273</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712693</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>71.98949189919441</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>63.20261847578161</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F43" t="n">
-        <v>95.65495909807819</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>142.3583058069273</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>118.5577190788931</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>142.3583058069273</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26073,10 +26073,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>49.80378675550283</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>71.98949189919415</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>484109.9092102027</v>
+        <v>484109.9092102028</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>507419.4827409897</v>
+        <v>507419.4827409898</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>507419.4827409899</v>
+        <v>507419.4827409898</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>507419.4827409898</v>
+        <v>507419.4827409899</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>507419.4827409898</v>
+        <v>507419.4827409899</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>507419.4827409899</v>
+        <v>507419.4827409898</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>507419.4827409898</v>
+        <v>507419.4827409897</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>507419.4827409898</v>
+        <v>507419.4827409897</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>507419.4827409898</v>
+        <v>507419.4827409897</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>582442.668011163</v>
       </c>
       <c r="C2" t="n">
+        <v>582442.6680111631</v>
+      </c>
+      <c r="D2" t="n">
         <v>582442.6680111632</v>
       </c>
-      <c r="D2" t="n">
-        <v>582442.6680111627</v>
-      </c>
       <c r="E2" t="n">
-        <v>562030.403137447</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="F2" t="n">
         <v>562030.4031374474</v>
       </c>
       <c r="G2" t="n">
-        <v>562030.4031374475</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="H2" t="n">
-        <v>562030.4031374471</v>
+        <v>562030.4031374477</v>
       </c>
       <c r="I2" t="n">
         <v>562030.4031374475</v>
       </c>
       <c r="J2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="K2" t="n">
         <v>562030.4031374473</v>
@@ -26346,16 +26346,16 @@
         <v>562030.4031374475</v>
       </c>
       <c r="M2" t="n">
-        <v>562030.4031374471</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="N2" t="n">
+        <v>562030.4031374473</v>
+      </c>
+      <c r="O2" t="n">
         <v>562030.4031374472</v>
       </c>
-      <c r="O2" t="n">
-        <v>562030.4031374473</v>
-      </c>
       <c r="P2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374472</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695918</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361228</v>
+        <v>23406.83367361168</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.287209419513538e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802893</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701984</v>
+        <v>18646.60035701936</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203366.9722795535</v>
+        <v>203366.9722795532</v>
       </c>
       <c r="C4" t="n">
         <v>191243.7287526203</v>
@@ -26426,22 +26426,22 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
+        <v>86696.74064784775</v>
+      </c>
+      <c r="F4" t="n">
         <v>86696.74064784776</v>
       </c>
-      <c r="F4" t="n">
-        <v>86696.74064784779</v>
-      </c>
       <c r="G4" t="n">
-        <v>86696.74064784774</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="H4" t="n">
-        <v>86696.74064784774</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="I4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="J4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
         <v>86696.74064784776</v>
@@ -26450,16 +26450,16 @@
         <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784765</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784756</v>
       </c>
       <c r="O4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784756</v>
       </c>
       <c r="P4" t="n">
-        <v>86696.74064784772</v>
+        <v>86696.74064784759</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216135</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,13 +26502,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="P5" t="n">
         <v>77750.06218842969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153909.7768398571</v>
+        <v>153909.7768398566</v>
       </c>
       <c r="C6" t="n">
-        <v>300345.8545475025</v>
+        <v>300345.8545475031</v>
       </c>
       <c r="D6" t="n">
-        <v>323752.6882211142</v>
+        <v>323752.6882211148</v>
       </c>
       <c r="E6" t="n">
-        <v>181844.2437445289</v>
+        <v>181793.2130823451</v>
       </c>
       <c r="F6" t="n">
-        <v>397583.60030117</v>
+        <v>397532.5696389857</v>
       </c>
       <c r="G6" t="n">
-        <v>397583.6003011701</v>
+        <v>397532.5696389855</v>
       </c>
       <c r="H6" t="n">
-        <v>397583.6003011697</v>
+        <v>397532.569638986</v>
       </c>
       <c r="I6" t="n">
-        <v>397583.6003011701</v>
+        <v>397532.5696389858</v>
       </c>
       <c r="J6" t="n">
-        <v>271006.3317208812</v>
+        <v>270955.3010586963</v>
       </c>
       <c r="K6" t="n">
-        <v>378936.99994415</v>
+        <v>378885.9692819662</v>
       </c>
       <c r="L6" t="n">
-        <v>397583.6003011701</v>
+        <v>397532.5696389858</v>
       </c>
       <c r="M6" t="n">
-        <v>217519.728846002</v>
+        <v>217468.698183818</v>
       </c>
       <c r="N6" t="n">
-        <v>397583.6003011697</v>
+        <v>397532.5696389858</v>
       </c>
       <c r="O6" t="n">
-        <v>397583.6003011698</v>
+        <v>397532.5696389857</v>
       </c>
       <c r="P6" t="n">
-        <v>397583.60030117</v>
+        <v>397532.5696389856</v>
       </c>
     </row>
   </sheetData>
@@ -26703,10 +26703,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539697</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,7 +26798,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
         <v>1278.783917572857</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539697</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162444</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539697</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162444</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539697</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162444</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,61 +27393,61 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>258.2887055397957</v>
+      </c>
+      <c r="I2" t="n">
+        <v>34.5479025439635</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>392.4274362026566</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="H2" t="n">
-        <v>294.8896947407055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>103.323621185591</v>
-      </c>
-      <c r="T2" t="n">
-        <v>218.7163152458132</v>
-      </c>
-      <c r="U2" t="n">
-        <v>255.7713603095518</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>212.5630528047616</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>46.97452946058812</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -27596,13 +27596,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>20.7236327215075</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,16 +27621,16 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>80.80383915666016</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27675,16 +27675,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>338.9673024934258</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>118.5577190788904</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.3065696569778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>350.5048792244489</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>4.095730177743832</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28070,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>66.6745659250426</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>2.410283467066493e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-1.939537063669349e-12</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-1.804778548830654e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-1.83724627112165e-12</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,22 +30747,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>-1.226474364150313e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.96403816098376</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.304553167394116</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539697</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539697</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34783,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1852207814487</v>
+        <v>483.7766911539697</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539678</v>
+        <v>25.75844738046914</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539697</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.2935975567572</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>72.14114201029115</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34956,10 +34956,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
+        <v>75.42597529544652</v>
+      </c>
+      <c r="M6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M6" t="n">
-        <v>158.2737632597934</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35111,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968705</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>415.010189472638</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35251,19 +35251,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>150.7519016821047</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,10 +35272,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,13 +35418,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O11" t="n">
-        <v>726.1504520311679</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35494,7 +35494,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>225.1119744769387</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35658,13 +35658,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>587.902602543405</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>455.4718870526091</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>155.5823699702323</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>595.2046518540839</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727604</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>865.6962239252163</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>225.1119744769386</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>982.4869477446711</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>175.4260559337397</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>666.8514437878999</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36381,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>62.48282579338804</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36855,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37092,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061656</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>574.2156596605913</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127058</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L37" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M37" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O37" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>191.6381265752678</v>
+        <v>930.2279594557826</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>643.7912868918553</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>269.8797922757841</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127058</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L40" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M40" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O40" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061656</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>250.7519823203977</v>
       </c>
       <c r="P42" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.35023495359069</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127058</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M43" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>106.3043917586369</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,13 +38025,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061647</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>404.3842704899966</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>58.0720487112706</v>
       </c>
       <c r="K46" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L46" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M46" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N46" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O46" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P46" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391534</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
